--- a/Test/Performance.xlsx
+++ b/Test/Performance.xlsx
@@ -5,42 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15634\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mydata\HOMEwork\Grade2_2\Object Oriented Programming\PROJ_OOP\OOP-Project-2020\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391BEF6C-2E20-4696-96C9-FC60CA76E2F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B2C5A0-FE64-4B54-8D8E-94F1F6AF009C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$75:$B$104</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$75:$C$104</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$L$75:$L$104</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$M$75:$M$104</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$75:$B$104</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$75:$C$104</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$D$75:$D$104</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$E$75:$E$104</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$F$75:$F$104</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$G$75:$G$104</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$H$75:$H$104</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$I$75:$I$104</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$75:$D$104</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$J$75:$J$104</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$K$75:$K$104</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$L$75:$L$104</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$M$75:$M$104</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$75:$E$104</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$75:$F$104</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$75:$G$104</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$H$75:$H$104</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$I$75:$I$104</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$J$75:$J$104</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$K$75:$K$104</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -112,7 +86,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -345,7 +319,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -355,35 +329,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -395,7 +354,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -680,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="O83" sqref="O83"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105:M105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -691,73 +665,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="21"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="14"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="18"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12">
+      <c r="A3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="11">
         <v>256</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>512</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>1024</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12">
+      <c r="J3" s="19"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="11">
         <v>8</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="11">
         <v>16</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="12">
         <v>32</v>
       </c>
     </row>
@@ -777,7 +751,7 @@
       <c r="E4" s="6">
         <v>19</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="1"/>
       <c r="J4" s="7">
         <v>1</v>
@@ -1797,52 +1771,52 @@
     </row>
     <row r="36" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:14" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="21"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="14"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12">
-        <v>20</v>
-      </c>
-      <c r="D39" s="12">
+      <c r="A39" s="19"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="11">
+        <v>20</v>
+      </c>
+      <c r="D39" s="11">
         <v>16</v>
       </c>
-      <c r="E39" s="12">
-        <v>32</v>
-      </c>
-      <c r="F39" s="12">
+      <c r="E39" s="11">
+        <v>32</v>
+      </c>
+      <c r="F39" s="11">
         <v>8</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="11">
         <v>4</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="12">
         <v>2</v>
       </c>
     </row>
@@ -2659,79 +2633,79 @@
     </row>
     <row r="71" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="1:15" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="21"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="16"/>
     </row>
     <row r="73" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11" t="s">
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="14"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="18"/>
     </row>
     <row r="74" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
-      <c r="B74" s="12">
+      <c r="A74" s="19"/>
+      <c r="B74" s="11">
         <v>10</v>
       </c>
-      <c r="C74" s="12">
+      <c r="C74" s="11">
         <v>25</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D74" s="11">
         <v>50</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74" s="11">
         <v>75</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="11">
         <v>100</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G74" s="11">
         <v>200</v>
       </c>
-      <c r="H74" s="12">
+      <c r="H74" s="11">
         <v>10</v>
       </c>
-      <c r="I74" s="12">
+      <c r="I74" s="11">
         <v>25</v>
       </c>
-      <c r="J74" s="12">
+      <c r="J74" s="11">
         <v>50</v>
       </c>
-      <c r="K74" s="12">
+      <c r="K74" s="11">
         <v>75</v>
       </c>
-      <c r="L74" s="12">
+      <c r="L74" s="11">
         <v>100</v>
       </c>
-      <c r="M74" s="15">
+      <c r="M74" s="12">
         <v>200</v>
       </c>
     </row>
@@ -4026,7 +4000,7 @@
       <c r="O104" s="2"/>
     </row>
     <row r="105" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="22"/>
+      <c r="A105" s="13"/>
       <c r="B105" s="9">
         <f>AVERAGE(B75:B104)</f>
         <v>17.966666666666665</v>
@@ -4208,6 +4182,9 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="H73:M73"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -4221,9 +4198,6 @@
     <mergeCell ref="A72:M72"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="B73:G73"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
